--- a/Datasets/parsedTests/OAB-38.xlsx
+++ b/Datasets/parsedTests/OAB-38.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>question_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>question</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>legalPrinciples</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>answers</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>canceledQuestion?</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>disciplines</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>QUESTÃO 01.  Teresa Silva, advogada atuante na área criminal, tem como clientes Luiz, acusado de 
 tráfico ilícito de drogas, e Roberto, acusado de crimes contra o sistema financeiro nacional. Após serem 
@@ -479,7 +492,7 @@
 devidos.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -518,22 +531,30 @@
 bens de Roberto para a satisfação dos honorários devidos.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Art. 24-A da Lei nº 8.906/94, Lei nº 11.343, de 23 de agosto de 2006 (Lei de Drogas), Art. 243 da Constituição Federal, Art. 24-A caput, § 3º e §4º, da Lei nº 8.906/94, art. 879 e seguintes da Lei nº 13.105, de 16 de março de 2015 (Código de Processo Civil)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>QUESTÃO 02.  O advogado Alex encontra -se licenciado junto  à OAB.  Assinale a opção que, 
 corretamente, apresenta uma causa para o licenciamento de Alex.  
@@ -543,7 +564,7 @@
 d)  O fato de Alex passar a sofrer de doen ça mental curável.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -562,22 +583,30 @@
 advocacia; III - sofrer doença mental considerada curável.”</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Art. 12 da Lei nº 8.906/94, Inciso I do Art. 12 da Lei nº 8.906/94, Inciso III do Art. 12 da Lei nº 8.906/94, Inciso II do Art. 12 da Lei nº 8.906/94</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>QUESTÃO 03. Marcelo, advogado, é acu sado de usar atestado médico falso para libertar seu cliente da 
 prisão. O fato alcança grande repercussão, a ponto de um jornal local publicar matéria em que afirma 
@@ -593,7 +622,7 @@
 sessenta dias.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra B . 
@@ -620,22 +649,30 @@
 caso, o processo disciplinar deve ser concluído no prazo máximo de noventa dias. ”</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>§3º do art. 70 da Lei nº 8.906/94</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>QUESTÃO 04. Uma sociedade de advogados decidiu patrocinar a realização de um evento, sob o 
 formato de um congresso, em certo hotel de lazer do tipo “resort”, que conta com área de conferências, 
@@ -652,7 +689,7 @@
 onde realizado.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Comentários  
  A alternativa correta é a letra C . 
@@ -677,22 +714,30 @@
 correta  a letra D e como incorretas  as assertivas de letras A, B e C.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>artigo 39 do Código de Ética e Disciplina da OAB (CED), princípios norteadores da moderação, discrição e meramente informativa (art. 39, CED), Art. 39 do CED, artigo 45 do Código de Ética e Disciplina da OAB (CED)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>QUESTÃO 05. A medida cautelar de busca e apreensão a ser cumprida no escritório do advogado Jos é 
 foi regularmente deferida, por Juízo competente. Considerou o magistrado que havia nos autos indícios 
@@ -710,7 +755,7 @@
 apreendidos, quando do cumprimento do mandado de busca e apreensão.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -735,22 +780,30 @@
 e letra D.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Artigo 7º, §6º-C do EAOAB, Artigo 7º, §6º-D do EAOAB, Artigo 7º, §§ 6º-F e 6º-G do EAOAB</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>QUESTÃO 06.  O advogado Luís Santos, regularmente inscrito na OAB, está em início de carreira. 
 Luís presta serviço s jurídicos a determinada instituição social sem fins econômicos, consistentes em 
@@ -766,7 +819,7 @@
 para uma instituição social cobrando preços simbólicos, haja vista a ausência de fins econômicos.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -788,22 +841,30 @@
 de profissional.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>§ 2º do art. 30 do Código de Ética e Disciplina da OAB, §3º do art. 30 do Código de Ética e Disciplina, art. 30 do Código de Ética e Disciplina, § 1º do art. 30 do Código de Ética e Disciplina da OAB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>QUESTÃO 07. Maria, advogada regularmente inscrita na OAB, encontra -se gestante. Em razão de sua 
 condição, Maria tem  direitos específicos previstos no Estatuto da Advocacia e da OAB. Assinale a opção 
@@ -818,7 +879,7 @@
 condição, pelo período de 90 (noventa) dias, contados a partir da data do parto.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa corret a é a letra A . 
@@ -847,22 +908,30 @@
 prejuízo do emprego e do salário.”</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>art. 7º-A, I, b, da Lei nº 8.906/94, inciso III do art. 7ºA da Lei nº 8.906/94, art. 7º -A, IV, c/c §3º, §6º do art. 313 do CPC, art. 313, § 6º do CPC, art. 7º -A, III, §2º do art. 7º -A, art. 392 da CLT</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>QUESTÃO 08. Luc as, estagiário de Direito, descobre que Patrícia, advogada que o supervisiona, teve 
 sua inscrição na OAB cancelada. Na intenção de auxiliar Patrícia a restabelecer o exercício da 
@@ -875,7 +944,7 @@
 d) será restaurado o número cancelado, caso seja feito um novo pedido de inscrição.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Comentários  
  A alternativa correta é a letra C . 
@@ -894,22 +963,30 @@
 fazer prova dos requisitos dos incisos I, V, VI e VII do art. 8º.”</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Art. 11, I da Lei nº 8.906/94, Art. 11, § 3º c/c inciso II da Lei nº 8.906/94, Art. 11, IV da Lei nº 8.906/94, Art. 11, § 1º da Lei nº 8.906/94, Art. 11, §2º da Lei nº 8.906/94, Art. 8º, I da Lei nº 8.906/94, Art. 8º, V da Lei nº 8.906/94, Art. 8º, VI da Lei nº 8.906/94, Art. 8º, VII da Lei nº 8.906/94</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>QUESTÃO 9. "Há muitos tipos diferentes de relação direito e a moral e a relação entre eles não pode 
 ser isolada com proveito para efeitos de estudo. Em vez disso, é importante distinguir algumas das 
@@ -932,7 +1009,7 @@
 ao direito positivo de forma espontânea e automáti ca.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra A . 
@@ -948,22 +1025,30 @@
 não os coloca como vetores de ligação entre a moral e o direito.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Moral social, Ideais morais, Princípios de justiça, Valores morais substantivos</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>QUESTÃO 10. “Mas  a disciplina traz consigo uma maneira específica de punir, e que é apenas um 
 modelo reduzido do tribunal. O que pertence à penalidade disciplinar é a inobservância, tudo o que está 
@@ -977,7 +1062,7 @@
 (D) Indenizar a vítima da conduta indisciplinada, como forma de reparação de um dano.</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra A . 
@@ -1001,22 +1086,30 @@
 reparaç ão de danos.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Poder disciplinar, Controle social, Função de corrigir, Adestrar e normalizar os indivíduos, Normas estabelecidas pelo poder</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>QUESTÃO 11. José foi eleito deputado estadual por determinado Estado da Federação. Uma semana 
 após a sua posse e fora do recinto da Assembleia Legislativa do seu respectivo Estado, o deputado 
@@ -1040,7 +1133,7 @@
 penal.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1065,22 +1158,30 @@
 alternativa A.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>art. 53, § 3º, da Constituição Federal, art. 27, § 1º, da Constituição Federal, art. 53 da Constituição Federal</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>QUESTÃO 12. O Presidente da República Federativa do Brasil, após ouvir os Conselhos da República 
 e de Defesa Nacional, decretou estado de defesa em parte da Região Centro -Oeste do país, que fora 
@@ -1099,7 +1200,7 @@
 Congresso Nacional.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Comentários  
 A alte rnativa correta é a letra D . 
@@ -1122,22 +1223,30 @@
 conforme o comentário realizado à alternativa A.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>art. 49, IV, da Constituição Federal, art. 136, §§ 4º e 6º, da Constituição Federal, art. 137 da Constituição Federal, art. 136, §§ 4º e 7º, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E13" t="b">
-        <v>0</v>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>QUESTÃO 13. Com grande adesão da população, o prefeito do Município Delta, situado no Estado -
 membro Alfa, declarou a independência do território municipal, criando um nov o país.  
@@ -1156,7 +1265,7 @@
 indica a invalidade do decreto.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1182,22 +1291,30 @@
 A alter nativa D está incorreta , vide comentários a alternativa C.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>art. 35 da Constituição Federal, art. 36 da Constituição Federal, art. 1º da Constituição Federal, Jurisprudência do STF, STF IF 590</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>QUESTÃO 14. Preocupado com a qualidade da educação básica ofertada pela rede de ensino municipal 
 do Município Teta, o prefeito da cidade pretende apresentar projeto de lei à Câmara Municipal, no 
@@ -1217,7 +1334,7 @@
 aos quais a ordem constitucional assegura a gratuidade.</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1235,22 +1352,30 @@
 As alternativas B, C e D estão incorretas , conforme o comentário da alternativa A.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>art. 206, IV, da Constituição Federal, art. 208, § 1º, da Constituição Federal, art. 208, II da Constituição Federal, acesso gratuito ao ensino público, direito público subjetivo ao ensino obrigatório e gratuito, progressiva universalização do ensino médio gratuito</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>QUESTÃO 15. A Lei n° VVY do Município Alfa revogou o adicional por tempo de serviços (ATS), 
 abolind o-o por inteiro com efeitos retroativos absolutos. Além disso, estabeleceu as regras para que os 
@@ -1271,7 +1396,7 @@
 em que o seu re conhecimento inviabilize políticas públicas nas áreas de educação e saúde.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1287,22 +1412,30 @@
 As alternativas A, B e D estã o incorretas , conforme o comentário da alternativa C.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>art. 5º, XXXVI, da Constituição Federal, direito adquirido, ato jurídico perfeito, coisa julgada, garantias fundamentais, segurança jurídica</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>QUESTÃO 16. O Procurador -Geral da República, preocupado com o grande número de decisões 
 judiciais divergentes, em âmbito nacional, referentes à possível inconstitucionalidade da Lei Federal n° 
@@ -1323,7 +1456,7 @@
 processo administrativo disciplinar contra os magistrados do TRF.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1351,22 +1484,30 @@
 zelar pela autonomia do Poder Judiciário (art. 103 -B, § 4º, I, da Constituição Federal).</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>art. 102, I, “l”, da Constituição Federal, art. 988, IV do CPC, art. 105, III, da Constituição Federal, art. 103-B, § 4º, da Constituição Federal, art. 103-B, § 4º, I, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>QUESTÃO 17. Numa acirrada disputa eleitoral pelo governo municipal de sua cidade, o prefeito atual 
 e candidato à reeleição, divulgou, por meio do site da Prefeitura , informações inexatas e ofensivas contra 
@@ -1384,7 +1525,7 @@
 em última instância.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra C , de acordo com o gabarito preliminar, mas a questão é passível de recur so, 
@@ -1410,22 +1551,30 @@
 demora injustificada na decisão sobre os mencionados recursos.”</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>art. 14. 1 Convenção Americana sobre Direitos Humanos – CADH, art. 46, a línea “a”, da CADH, princípios de Direito Internacional geralmente reconhecidos, art. 46.2, da CADH</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E18" t="b">
-        <v>0</v>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>QUESTÃO 18. Considere a hipótese de ter sido decretado Es tado de Emergência no país, implicando a 
 suspensão de garantias judiciais, como o habeas corpus. Argumentando a favor desse Decreto, o 
@@ -1446,7 +1595,7 @@
 nacional, pode haver a suspensão de alguns direitos e garantias, dentre eles o direito ao habeas corpus.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1469,22 +1618,30 @@
 Logo, as alternativas A, B e D estão incorretas .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>art. 27. 1, da Convenção Americana sobre Direitos Humanos – CADH, art. 27.2, da CADH, artigos: 3 (Direito ao Reconhecimento da Personalidade Jurídica), 4 (Direito à vida), 5 (Direito à Integridade Pessoal), 6 (Proibição da Escravidão e Servidão), 9 (Princípio da Legalidade e da Retroatividade), 12 (Liberdade de Consciência e de  Religião), 17 (Proteção da Família), 18 (Direito ao Nome), 19 (Direitos da Criança), 20 (Direito à Nacionalidade), 23 (Direitos Políticos), Opiniões Consultivas 08/97, Opiniões Consultivas 09/97, artigos 25.1, art. 7.6 da Convenção Americana sobre Direitos Humanos, artigo 27.2 do Convenção, habeas corpus (art. 7.6), amparo, art. 25.1</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>QUESTÃO 19. No ano anterior à realização de eleições para cargos eletivos federais e estaduais, os 
 dirigentes dos partidos políticos Alfa e Gama iniciaram tratati vas para se aliançarem, tanto nas eleições 
@@ -1499,7 +1656,7 @@
 da data do respectivo ingresso</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra D . 
@@ -1516,22 +1673,30 @@
 anos".</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Artigo 6º da Lei 9.504/97, Artigo 11-A da Lei 9.096/95</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E20" t="b">
-        <v>0</v>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>QUESTÃO 20 - Helena, filiada ao partido político Beta e candidata ao cargo de governadora do Estado 
 Alfa, consultou seu advogado a respeito da composição dos gastos de campanha, mais especificamente 
@@ -1546,7 +1711,7 @@
 limite de gastos de campanha.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Comentários  
 A resposta correta é a letra B . 
@@ -1564,22 +1729,30 @@
 sujeitos ao  limite de gastos com a campanha.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Artigo 18-A, parágrafo único, da lei 9.504/97, Ampla defesa</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E21" t="b">
-        <v>0</v>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>QUESTÃO 21. Um brasileiro teve seu pedido de visto de trabalho negado por uma representação 
 consular de Estado estrangeiro. Inconformado, consultou você, como advogado (a), para a adoção das 
@@ -1592,7 +1765,7 @@
 competente.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1605,22 +1778,30 @@
 As alternativas B, C e D estão incorretas  de acordo com o fundamento  exposto na alternativa A.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Decisão discricionária da autoridade consular, Imunidade de jurisdição do funcionário consular, Convenção de Viena sobre relações consulares (1963): Art. 43.1</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>QUESTÃO 22. O cidadão francês Pierre Renoir, residente e domiciliado em Portugal, foi casado com 
 uma espanhola, com quem teve dois filhos nascidos na Alemanha. Pierre faleceu em 2022 e deixou como 
@@ -1632,7 +1813,7 @@
 d) alemã.</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -1642,22 +1823,30 @@
 As alternativas A, C e D estão incorretas , de acordo com o fundamento exposto na alternativa B.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>art. 10, caput, da Lei de Introdução às Normas do Direito Brasileiro (LINDB)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>QUESTÃO 23.  João ganhou uma ação movida em face do Estado Gama, na qual este foi condenado a 
 pagar o equivalente a 30 salários mínimos a título de danos morais pelo uso indevido de sua imag em em 
@@ -1675,7 +1864,7 @@
 administra o tesouro estadual e o banco em que João tem sua conta.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -1715,22 +1904,30 @@
 I - quarenta salários -mínimos, perante a Fazenda dos Estados e do Distrito Federal;”</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>art. 87 do ADCT, §3º do art. 100 da CRFB, §4º do art. 100 da CRFB, inciso I do art. 87 do ADCT, art. 78 do ADCT</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>QUESTÃO 24 O Presidente da República está elaboran do projeto de lei que estabelece, de forma 
 regionalizada, as diretrizes, objetivos e metas da Administração Pública federal para as despesas de 
@@ -1745,7 +1942,7 @@
 d) Trata -se de projeto de lei que institui o Plano Plurianual, a  ser veiculado por meio de lei ordinária.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -1780,22 +1977,30 @@
 maioria absoluta de seus membros”.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>§ 1º do art. 165 da CF/88, Art. 47 da Constituição Federal, art. 69 da CF/88</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>QUESTÃO 25. Em dezembro de 2022, um decreto do prefeito do Município Alfa atualizou o valor do 
 Imposto Predial e Territ orial Urbano (IPTU], a contar de 1º de janeiro de 2023, atendo -se à aplicação 
@@ -1814,7 +2019,7 @@
 para a concessão deste tipo de isenção.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1840,22 +2045,30 @@
 o índice oficial de correção monetária, pode ser feita mediante decreto.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Art. 97, II e § 2º do CTN, Súmula nº 160 do STJ, Art. 150, § 6º da Constituição</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>QUESTÃO 26. O Estado Alfa alterou, por meio de lei, a contribuição social para custeio do regime 
 próprio de previdência social, cob rada dos seus servidores ativos, dos aposentados e dos pensionistas.  
@@ -1875,7 +2088,7 @@
 de contribuição.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -1897,22 +2110,30 @@
 podem ter alíquotas progressivas.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Art. 149 da Constituição Federal, Arts. 146, III, e 150, I e III da Constituição Federal, Art. 195, § 6º da Constituição Federal, § 1º do Art. 149 da Constituição Federal, capacidade contributiva</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E27" t="b">
-        <v>0</v>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>QUESTÃO 27. O Governador do Estado Alfa, diante da grande quantidade de bicicletas elétricas 
 circulando em seu território, e v isando aumentar a arrecadação, oficiou à sua Secretaria da Fazenda 
@@ -1931,7 +2152,7 @@
 competência é privativa do Governador.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1957,22 +2178,30 @@
 anterior, somente a União detém competência tributária residual.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Art. 108 do CTN, §1º do Art. 108 do CTN, Veículos de circulação terrestres, definidos no Código de Trânsito Brasileiro, se enquadram no conceito de veículo automotor para fins de incidência do IPVA (STF), Art. 154, I, da Constituição Federal, Competência tributária residual da União</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>QUESTÃO 28.  A Sociedade Empresária Aguardente 100% Ltda., fabricante de bebidas destiladas, por 
 meio de sua advogada Sophia, protocolou perante a Secretaria Especial da Receita Federal do Brasil, 
@@ -1990,7 +2219,7 @@
 lei tributária na pendência da consulta tributária.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra C . 
@@ -2008,22 +2237,30 @@
 legal de pagamento – não pode ser aplicada nenhuma medida de garantia prevista em legislação tributári a.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Art. 161 do CTN, § 2º do Art. 161 do CTN</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E29" t="b">
-        <v>0</v>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>QUESTÃO 29. A Sociedade Empresária ABC Ltda. adquiriu no exterior um lote de dez mil unidades 
 de um determinado perfume francês. Antes da chegada das mercadorias ao porto, foi publicado no 
@@ -2044,7 +2281,7 @@
 d) A majoração dessa alíquota e a sua produção de efeitos imedia ta são válidas.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2076,22 +2313,30 @@
 A alternativa C está incorreta . Conforme explicado na assertiva anterior.</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>art. 150, § 1º, da Constituição Federal, Art. 153 da Constituição Federal, Art. 19 do CTN, artigos 23 e 44 do Decreto-lei nº 37/1966, Art. 150 da Constituição Federal</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>QUESTÃO 30. Ariquemes é servidor público federal e vem cumprindo diligentemente com as 
 obrigações estabelecidas em lei para obter sua progressão funcional e assim aumentar sua remuneração. 
@@ -2115,7 +2360,7 @@
 exercidas pelos órgãos, inclusive as relativas a sua organização e serviços.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2141,22 +2386,30 @@
 pelos órgãos e entidades, inclusive as relativas à sua política, organização e serviços;”</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Direito subjetivo à progressão funcional (STJ REsp 1878849-TO), Art. 22, inciso I do parágrafo único da Lei Complementar n. 101/2000, Art. 24, § 2º, da Lei 12.527/2011, Art. 5º da Lei 12.527/2011, Art. 7º, V, da Lei 12.527/2011</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>QUESTÃO 31. No ano corrente, o Ministério Público ajuizou duas ações p or improbidade 
 administrativa distintas, uma em desfavor de Carlos, prefeito do Município Alfa, e, outra, em desfavor 
@@ -2183,7 +2436,7 @@
 administrativa, o que não ocorreu em nenhum dos c asos.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -2205,22 +2458,30 @@
 enriquecimento ilícito dos agentes públicos.</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>art. 11 da Lei 8.429/92, art. 11, § 1º, da Lei 8.429/92, artigo 11, XI, da Lei 8.429/92, artigo 11, IV, da Lei 8.429/92, art. 11, § 4º, da Lei 8.429/92</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>QUESTÃO 32. Josias e Januário são servidores públicos federais de alta hierarquia e estavam 
 conversando sobre os problemas inerentes ao exercício de suas atribuições. Enquanto Josias está 
@@ -2240,7 +2501,7 @@
 motivos relevantes devidamente justificados.</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2258,22 +2519,30 @@
 hierarquicamente inferior.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Art. 14, caput, da Lei 9.784/99, Art. 14, § 2º, da Lei 9.784/99, Art. 12, caput, da Lei 9.784/99, Art. 15 da Lei 9.784/99</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E33" t="b">
-        <v>0</v>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>QUESTÃO 33. O pequeno Município Alfa, situado no interior do Estado Beta, enfrenta g rave problema 
 de abastecimento de água potável, pois não há fornecimento de água encanada para determinada região 
@@ -2302,7 +2571,7 @@
 diálogos.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Com entários  
 A alternativa correta é a letra D . 
@@ -2328,22 +2597,30 @@
 final após o encerramento dos diálogos;”</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>art. 6º, XLII, da Lei 14.133/2021, artigo 32, I, alíneas a, b, c, da Lei 14.133/2021</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E34" t="b">
-        <v>0</v>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>QUESTÃO 34. O Municíp io Alfa, observadas as cautelas legais, instituiu servidão administrativa sobre 
 o imóvel de propriedade de Gabriel, com a finalidade de instalar postes e fios de energia elétrica, com 
@@ -2364,7 +2641,7 @@
 mediante justa e prévia indenização em dinheiro.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -2381,22 +2658,30 @@
 comprovado.</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>art. 40 do Decreto-Lei 3.365/41</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>QUESTÃO 35.  Tramita na Câmara do Município Alfa projeto de lei que dispõe sobre pr oteção ao meio 
 ambiente no âmbito de seu território, observado o interesse local. |Sabe -se que o projeto de lei está 
@@ -2415,7 +2700,7 @@
 de forma diversa e menos protetiva ao ambiente do que a disciplina estadual.</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -2446,22 +2731,30 @@
 legislar sobre assuntos de interesse local; II - suplementar a legislação federal e a estadual no que couber”.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Art. 24, da CRFB/88, Art. 22 da Constituição Federal, Art. 24, VI, da Constituição da República, jurisprudência fixada pelo Supremo Tribunal Federal (STF), RE 732686, art. 30, incisos I e II, da CRFB/88, Art. 30, incisos I e II, da Constituição Federal</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E36" t="b">
-        <v>0</v>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>QUESTÃO 36. O condomínio residencial Alfa Orquídeas é constituído por diversos blocos, com médio 
 núcleo populacional , e está localizado em zona urbana do Município Beta, situado no Estado Gama. 
@@ -2480,7 +2773,7 @@
 d) outorga de  uso de recursos hídricos ao Estado Gama.</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2507,22 +2800,30 @@
 outorgar os direitos de uso de recursos hídricos.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Lei 9.433/97, inciso II do art. 12 da Lei 9.433/97, art. 26, I da CRFB/88</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E37" t="b">
-        <v>0</v>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>QUESTÃO 37. Os irmãos Eduardo e Letícia herdaram um apartamento de sua mãe . Concluído o 
 inventário, decidiram vender o apartamento ao casal Pedro e Mariana. Para tanto, as partes celebraram 
@@ -2539,7 +2840,7 @@
 d) Eduardo e Letícia não podem pleitear sozinhos o pagamento do preço, ainda que parcial.</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -2551,22 +2852,30 @@
 As alternativas A, C e D estão incorretas , de acordo com o fundamento exposto na alternativa B.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>arts. 275 do CC/02, art. 257 do CC/02</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E38" t="b">
-        <v>0</v>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>QUESTÃO 38. Renata alugou um imóvel a Tadeu. Como garantia das obrigações de Tadeu, Luzia e 
 Humberto prestaram fiança a Renata. Tadeu descumpriu suas obrigações contratuais, deixando de 
@@ -2584,7 +2893,7 @@
 extensiva.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra A . 
@@ -2599,22 +2908,30 @@
 se-á por escrito, e não admite interpretação extensiva”.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>art. 822 do CC/02, art. 827, caput, do CC/02, art. 829, caput, do CC/02, art. 819 do CC/02</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E39" t="b">
-        <v>0</v>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>QUESTÃO 39. Robson, advogado de sucesso e bem -sucedido profissionalmente, foi preso e condenado, 
 com sentença transitada em julgado, pelo crime de homicídio, inic iando o cumprimento de sua pena no 
@@ -2631,7 +2948,7 @@
 d) O fato de Robson estar preso não afasta sua obrigação alimentar.</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -2650,22 +2967,30 @@
 pois existe a possibilidade de e xercer atividade remunerada no cárcere”.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Art. 1.696 do CC/02, Entendimento do STJ, Súmula nº 358 do STJ</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E40" t="b">
-        <v>0</v>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>QUESTÃO 40. Maria Cristina era casada com Roberto, falecido no início de 2022, sem deixar 
 testamento, sob o regime de separação convencional de bens. O casal sempre viveu em um imóvel de 
@@ -2683,7 +3008,7 @@
 do regime de separação convencional de bens.</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -2694,22 +3019,30 @@
 As alternativas B, C e D estã o incorretas , de acordo com o fundamento exposto na alternativa A.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>art. 1.831 do CC/02, direito real de habitação</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E41" t="b">
-        <v>0</v>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>QUESTÃO 41. Joana, conhecida durante toda a sua vida em sua cidade natal pelo prenome Giovanna, 
 começa a enfrentar uma série de embaraços e constrangimentos ao ser chamada em órgãos públi cos 
@@ -2728,7 +3061,7 @@
 público e notório.</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -2739,22 +3072,30 @@
 As alternativas A, B e D estão incorretas , de acordo com o fundamento exposto na alternativa C.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>art. 56 da Lei nº 6.015 (Lei de Registros Públicos)</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E42" t="b">
-        <v>0</v>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>QUESTÃO 42. Antônio é proprietário de um prédio que não tem acesso à via pública. De um lado, 
 Antônio tem Ricardo como v izinho, cuja propriedade alcança a via pública. Do outro lado, Antônio tem 
@@ -2770,7 +3111,7 @@
 d) que Ricardo lhe dê a passagem, mediante pagamento de indenização cabal.</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Comentários  
 A alte rnativa correta é a letra D . 
@@ -2781,22 +3122,30 @@
 As alternativas A, B e C estão incorretas , conforme o fundamento exposto na alternativa D.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>art. 1.285, caput e § 1º, do CC/02</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E43" t="b">
-        <v>0</v>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>QUESTÃO 43. Pedro, adolescente de quinze anos, foi apreendido pela prática de ato infracional análogo 
 ao crime de roubo. Realizados todos os procedimentos legais cabíveis, o juízo determinou cautelarmente 
@@ -2816,7 +3165,7 @@
 desenvolvidas as atividades pedagógicas próprias dessa medida socioeducativa.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Comentários  
  A alternativa correta é a letra C . 
@@ -2830,22 +3179,30 @@
 A alternativa D está incorreta , pois não há essa previsão legal.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>arts. 185, caput , c/c §2º, do Estatuto da Criança e do Adolescente – ECA</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E44" t="b">
-        <v>0</v>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>QUESTÃO 44. A mãe de Joaquim, criança com necessidades especiais, requereu acompanhamento por 
 professor especializado em atendimento de pessoas com deficiência à escola -creche  pública municipal 
@@ -2862,7 +3219,7 @@
 presença de profissional especificamente capacitado, em razão da aplicabilidade da reserva do possível.</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -2894,22 +3251,30 @@
 A alternativa D está incorreta , conforme o fundamento exposto no comentário da alternativa C.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>art. 208, inciso III, da Constituição Federal, art. 54, inciso III, do Estatuto da Criança e do Adolescente – ECA, AgRg no AGRAVO EM RECURSO ESPECIAL Nº 790.767 – MG, Direitos Fundamentais, princípio do majoritário, democracia, liberdade de expressão, pluralismo político, acesso à informação, inviolabilidade da intimidade, respeito às minorias, reserva do possível, dignidade humana, mínimo existencial</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E45" t="b">
-        <v>0</v>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>QUESTÃO 45. Carlos foi interna do para tratamento de saúde. Apresentava estado grave, sendo seus 
 familiares informados sobre a limitação do tempo de internação.  
@@ -2928,7 +3293,7 @@
 por se tratar de contrato de adesão celebrado em situação de lesão ao consumidor.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -2977,22 +3342,30 @@
 publicado no DJE: 4/7/19).</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Súmula 608 do STJ, Código de Defesa do Consumidor, Súmula 302 do STJ, Artigo 51 do CDC, Art. 156 do CC/2002, Resolução Normativa 44 de 4 de julho de 2003 da Agência Nacional de Saúde Suplementar, Abuso de direito, Violação de direito da personalidade, Princípios da razoabilidade e da proporcionalidade</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E46" t="b">
-        <v>0</v>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>QUESTÃO 46. Diego ofereceu papinha industrializada para seu filho que apresentou sintomas de 
 diarreia e vômito algumas horas depois.  
@@ -3016,7 +3389,7 @@
 responsabilidade subsidiária.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa apontada pela banca como correta é a letra B . Contudo, é passível de recurso , pois a alternativa 
@@ -3060,22 +3433,30 @@
 alternativa D.</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Artigo 12 do CDC, Artigo 13 do CDC, Responsabilidade pelo fato do produto, Responsabilidade civil do comerciante, REsp 980.860/SP, Vício de segurança</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E47" t="b">
+      <c r="F47" t="b">
         <v>1</v>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>QUESTÃO 47. Ainda que o Registro Público de Empresas Mercantis, a cargo das Juntas Comerciais, 
 não possa examinar o mérito dos atos dos empresários, sociedades empresárias e cooperativas, 
@@ -3090,7 +3471,7 @@
 liquidação.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3110,22 +3491,30 @@
 incorreta.</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Lei de nº 8.934/1994, artigo 35, inciso V, Artigo 1155 CC/02, Artigo 1033, inc. I, Artigo 1057 do CC/02, Artigo 1071 do CC/02</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E48" t="b">
-        <v>0</v>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>QUESTÃO 48. Marco Araripe pretende iniciar uma empresa em nome próprio e mediante 
 responsabilidade ilimitada pel as obrigações. Antes de realizar sua inscrição na Junta Comercial, Marco 
@@ -3142,7 +3531,7 @@
 vedada a indicação do gênero d e atividade.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3157,22 +3546,30 @@
 As alternativas B, C e D estão incorretas , lastreando -se nesta mesma fundamentação da alternativa A.</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Artigo 1156 CC/02, Artigo 1157 CC/02</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E49" t="b">
-        <v>0</v>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>QUESTÃO 49. Para honrar um empréstimo que lhe foi conced ido, o empresário Ruy Barbosa 
 subscreveu nota promissória em favor de Medeiros Neto, com vencimento para o dia 30 de março de 
@@ -3189,7 +3586,7 @@
 endossatários posteriores a Wagner Desidério.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -3214,22 +3611,30 @@
 que vierem a receber o título endossado.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Art. 15, alínea II da LUC, Artigo 15, alínea II da LUG</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E50" t="b">
-        <v>0</v>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>QUESTÃO 50. Cambira e Mallet adquir iram 1 (uma) quota da sociedade limitada Imbaú Ensino 
 Superior Ltda. no valor de R$250.000,00 (duzentos e cinquenta mil reais), sendo, portanto, condôminos 
@@ -3245,7 +3650,7 @@
 audiência dos demais sócios, ainda que omisso o contrato</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -3266,22 +3671,30 @@
 se não houver oposição de titulares de mais de um quarto do contrato social . ( artigo 1057 do CC/02)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Artigo 1056 do CC/02, § 2º do art. 1056 CC/02, § 1º do artigo 1056 CC/02, artigo 1057 do CC/02, REsp 1.570.452 (STJ)</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E51" t="b">
-        <v>0</v>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>QUESTÃO 51. Luíza ajuizou ação de cobrança contra Ricardo. Em sua petição inicial, informou que 
 não possui interesse na realização de audiência de conciliação ou mediação. Ricardo, por sua vez, 
@@ -3300,7 +3713,7 @@
 atentatório à dignidade da justiça.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -3316,22 +3729,30 @@
 As alternativas A, B e C estão incorretas , conforme o fundamento exposto no comentário da alternativa D.</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>art. 334, §4º, do Código de Processo Civil, art. 334, §8º, do CPC, ato atentatório à dignidade da justiça</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E52" t="b">
-        <v>0</v>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>QUESTÃO 52. Arthur e Felipe trabalham juntos na Transportadora Esporte S/A, que realiza 
 campeonatos mensais de futebol entre suas diversas equip es. No último torneio, houve um grande 
@@ -3352,7 +3773,7 @@
 d) a aplicação da pena de confesso ao réu, diante de sua recusa a depor.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -3363,22 +3784,30 @@
 equivocados, conforme o fundamento exposto no comentário da alternativa D.</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Art. 385, §1º, do Código de Processo Civil – CPC</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E53" t="b">
-        <v>0</v>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>QUESTÃO 53. Humberto, em conjunto com seus amigos Paulo e Maria, eram os únicos sócios da 
 Sociedade Incorporadora Ltda.  
@@ -3404,7 +3833,7 @@
 da ação de dissolução parcial de sociedade.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -3427,22 +3856,30 @@
 imediata à fase de liquidação, não sendo necessário o ajuizamento de ação autônoma.</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Art. 601, parágrafo único, do Código de Processo Civil – CPC, Art. 603, caput e §1º, do CPC, Art. 600, inciso I, do CPC, Art. 603 do CPC</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E54" t="b">
-        <v>0</v>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>QUESTÃO 54. Tatiana ingressou com ação de alimentos em face do seu ex -marido José, pleiteando 
 pensão alimentícia no valor mensal de R$ 5.000,00 (cinco mil reais), e gratuidade de justiça que lhe foi 
@@ -3467,7 +3904,7 @@
 justificou a concessão de gratuidade de justiça para Tatiana.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3482,22 +3919,30 @@
 As alternativas B, C e D estão incorretas , conforme o fundamento exposto no comentário da alternativa A.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>art. 98, §3º, do Código de Processo Civil – CPC, condição suspensiva de exigibilidade, honorários de sucumbência</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E55" t="b">
-        <v>0</v>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>QUESTÃO 55. Joaquim celebrou com a concessionária Fast Cor Ltda. contrato de compra e venda de 
 veículo, com força de título executivo, em que restou prevista a entrega do automóvel, com indicação de 
@@ -3516,7 +3961,7 @@
 d) Ajuizar outra execução, agora por quantia certa, uma vez que possui título executivo extrajudic ial.</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -3538,22 +3983,30 @@
 A alternativa D está incorreta , conforme o fundamento expost o no comentário da alternativa B.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>art. 809, caput, do Código de Processo Civil, art. 809, §2º do CPC, art. 809, §1º, do CPC</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E56" t="b">
-        <v>0</v>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>QUESTÃO 56. Rafael ajuizou ação de despejo em face de Luiz, sob o fundamento de que Luiz não teria 
 pago o aluguel do imóvel de sua propriedade nos últimos meses. Em primeira instância, foi proferida 
@@ -3576,7 +4029,7 @@
 do recurso extraordinário.</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra C.  
@@ -3597,22 +4050,30 @@
 ao vice -presidente do tribunal recorrido (...)”</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>art. 1.030, inciso I, alínea “a” c/c 1.030, §2º, do Código de Processo Civil, art. 1.021 do Código de Processo Civil, art. 1.030, caput, do CPC</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E57" t="b">
-        <v>0</v>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>QUESTÃO 57. Após rigorosa fiscalização, uma empresa provedora de Internet verificou que s ua rede 
 de wifi com senha bloqueada estava sendo indevidamente utilizada por um grupo de pessoas. Após 
@@ -3628,7 +4089,7 @@
 d) admissível, pois se trata de hipótese de interpretação analógica, cabível no Direito Penal.</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -3651,22 +4112,30 @@
 referido dispositivo às hipóteses de utilizaç ão clandestina do sinal de wifi.</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>princípio da legalidade, artigo 5º, XXXIX, da CF, artigo 1º do CP, artigo 155, §3º, do CP</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E58" t="b">
+      <c r="F58" t="b">
         <v>1</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>QUESTÃO 58. Francisco, funcionário público concursado de uma autarquia federal recebeu de seu 
 órgão de atuação um notebook funcional, tendo assinado livro de carga referente ao objeto e assumido 
@@ -3694,7 +4163,7 @@
 de ter reparado o dano antes da sentença.</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -3711,22 +4180,30 @@
 necessário recorrer à aplicação do arrependimento posterior.</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Artigo 312, §3º, do CP</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E59" t="b">
-        <v>0</v>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>QUESTÃO 59. Maria, adolescente de 13 anos, procura seu tio Roberto e informa que está grávida, mas 
 que não deseja ter o filho, motivo pelo qual pede sua ajuda para interromper a gravidez. Roberto,  diante 
@@ -3745,7 +4222,7 @@
 com o consentimento da gestante, previsto no Art. 126 do CP.</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Comentários  
 A alternat iva correta é a letra B . Contudo, é passível de anulação, pois a  alternativa D também está correta.  
@@ -3770,22 +4247,30 @@
 referido consentimento não é válido, aplicando -se a pena do artigo 125.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>artigo 217-A do CP, artigo 128, II, artigo 124 do CP, artigo 125, artigo 126, parágrafo único, do CP</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E60" t="b">
+      <c r="F60" t="b">
         <v>1</v>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>QUESTÃO 60. Bruno, 20 anos, residente no Rio de Janeiro/RJ, conduzia seu veículo de madrugada 
 com des tino à cidade de São Paulo/SP. Bruno dirigia dentro da velocidade permitida, portando carteira 
@@ -3809,7 +4294,7 @@
 omissão de socorro, em concurso material.</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3837,22 +4322,30 @@
 vez que a culpa exclusiva da vítima rompe o nexo causal entre o resultado e a conduta do agente.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>art. 304 do Código de Trânsito Brasileiro, crime de omissão de socorro, nexo causal, art. 302 do CTB, art. 302, §1º, III, do CTB</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E61" t="b">
-        <v>0</v>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>QUESTÃO 61. Luís Alberto, primário, foi condenado a uma pena de oito meses de detenção, em  regime 
 inicial aberto, por ter agredido sua companheira, causando -lhe lesões corporais. Na qualidade de 
@@ -3864,7 +4357,7 @@
 D) Substituição da pen a privativa de liberdade por multa.</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.   
@@ -3888,22 +4381,30 @@
 pecuniária, bem como a substituição de pena que i mplique o pagamento isolado de multa”.</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>art. 44, I, do Código Penal, súmula n. 588 do STJ, súmula nº 536 do STJ, art. 77 do Código Penal, AgRg no REsp 1.691.667/RJ, art. 17, lei nº 11.340/2006</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E62" t="b">
-        <v>0</v>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>QUESTÃO 62. Alan é bombeiro civil e, atendendo a uma ocorrência, foi retirar um suposto animal 
 selvagem de um condomínio residencial. Lá chegando, deparou -se com um aparente filhote de onça, o 
@@ -3926,7 +4427,7 @@
 culpabilidade da sua conduta.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -3963,22 +4464,30 @@
 PROCESSO PENAL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Erro de tipo permissivo (discriminante putativa), Excludentes de ilicitude (legítima defesa, estado de necessidade, estrito cumprimento de dever legal ou exercício regular de direito), Art. 20, §1º, primeira parte do CP, Erro de tipo incriminador, Erro escusável, Erro inescusável, Art. 20, caput, do CP, Erro de proibição, Art. 21 do CP</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E63" t="b">
-        <v>0</v>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>QUESTÃO 63. Margot adquiriu de César, de boa -fé e a título oneroso, um imóvel mas não levou o 
 instrumento ao Registro de Imóveis competente. Por isso, quando César foi acusado de prática de 
@@ -3996,7 +4505,7 @@
 proventos da infração penal.</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -4019,22 +4528,30 @@
 sido transferidos a título oneroso, sob o fundamento de tê -los adquirido de boa -fé.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Artigo 130, II, do CPP, Súmula 267 do STF, Artigo 5,II, da 12.016/09</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E64" t="b">
-        <v>0</v>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>QUESTÃO 64. A Polícia civil ingressou na residência de Gustavo com o objetivo de cumprir mandado 
 de prisão em desfavor de seu filho, Mariano, o qual era acusado de tráfico de drogas. A ordem de prisão 
@@ -4056,7 +4573,7 @@
 autoridade judiciária, entretanto, ratificar a diligência.</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -4084,22 +4601,30 @@
 para o êxito da diligência".</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Artigo 301 do CPP, RHC 51.531/RO, HC 695.457, REsp 1920404/PA, HC 663.055/MT, Artigo 248 do CPP</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E65" t="b">
-        <v>0</v>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>QUESTÃO 65. Flávia foi acompanhada por você, na qualidade de advogado(a), à presença da 
 Autoridade Policial, para noticiar a prática dos crimes de apropriação indébita e fraude processua l 
@@ -4120,7 +4645,7 @@
 do Inquérito Policial.</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -4134,22 +4659,30 @@
 o requerimento de abertura de inquérito caberá recurso para o chefe de Polícia.”</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>artigo 5º, §2º, do CPP</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E66" t="b">
-        <v>0</v>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>QUESTÃO 66. Luciane ajuizou na Vara Criminal da Comarca de Roma (ES) uma ação  penal privada 
 contra Jorge (guarda municipal daquele município) por crime de injúria (Art. 140, caput, do CP). Antes 
@@ -4170,7 +4703,7 @@
 conhecimento do endereço da mãe do querelado na Comarca de Oeiras (ES).</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -4188,22 +4721,30 @@
 fora do território da jurisdição do juiz processante, será citado mediante precatória.”</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>artigo 358 do CPP, artigo 362 do CPP, artigo 353 do CPP</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>QUESTÃO 6 7. Arthur e sua esposa Aline, residentes no Distrito Federal, decidem viajar em um 
 cruzeiro, partindo de Fortaleza com destino à cidade do Rio de Janeiro e fazendo uma parada em Recife. 
@@ -4218,7 +4759,7 @@
 d) A Vara Criminal da Comarca de Fortaleza.</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -4242,22 +4783,30 @@
 estadual é incompeten te para dirimir o presente caso.</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>artigo 129, §1º, do CP, artigo 61 da Lei 9.099/95, artigo 41 da Lei Maria da Penha, artigo 109, IX, da CF, artigo 89 do CPP</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E68" t="b">
-        <v>0</v>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>QUESTÃO 68. João dirigia seu veículo, um Porsche Cayenne ano 2015, por uma rodovia quando, em 
 abordagem de rotina, foi parado pela Policia Militar. João exibiu sua carteira nacional de habilitação e 
@@ -4279,7 +4828,7 @@
 devendo o feito prosseguir em relação ao uso de documento falso.</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa apontada pela banca como correta é a letra A.  Contudo, é passível de anulação, pois a 
@@ -4304,22 +4853,30 @@
 um ano, não seria possível aplicar a suspensão condicional do processo no caso em tela.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Artigo 180, §3º, do CP, Art. 156 do Código de Processo Penal, Jurisprudência sobre ônus da prova no crime de receptação, Artigo 304 do Código Penal, Jurisprudência sobre a prova pericial nos crimes de uso de documento falso, Súmula 243 do STJ</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E69" t="b">
-        <v>0</v>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>QUESTÃO 69. Manoel, empresário do segmento de alimentação, desempenha suas atividades como 
 sócio administ rador de sua sociedade empresária, a qual desenvolve suas atividades em mais de uma 
@@ -4336,7 +4893,7 @@
 Geral de Previdência Social, haja vista a perda da qua lidade de segurado.</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -4359,22 +4916,30 @@
 individual.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Decreto nº 3.049/1999, Art. 9º, V, “e”, item “4”, do Decreto nº 3.049/1999, Decreto nº 10.410/2020</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E70" t="b">
-        <v>0</v>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>QUESTÃO 70. Maria, empregada doméstica, deu à luz um menino. No mês em que seu filho nasceu, 
 foram contabilizadas sete contribuições mensais feitas por ela para o Regime Ge ral de Previdência 
@@ -4387,7 +4952,7 @@
 d) Ela não tem direito, pois as empregadas domésticas não podem gozar desse benefício.</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -4400,22 +4965,30 @@
 As alter nativas B, C e D estão incorretas , conforme comentário da alternativa A.</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>art. 29, III, do Decreto nº 3.048/1999, art. 30, II, do Decreto nº 3.048/1999</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E71" t="b">
-        <v>0</v>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>QUESTÃO 71. Anne é diretora não -empregada de uma grande multinacional. Ela tem contraprestação 
 pecuniária elevada e algumas vantagens pelo cargo que ocupa como, por exemplo, veículo com 
@@ -4432,7 +5005,7 @@
 empregada.</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -4446,22 +5019,30 @@
 sendo possível a equiparação.</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>art. 16 da Lei 8.036/90, legislação trabalhista</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E72" t="b">
-        <v>0</v>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>QUESTÃO 72. Vladimir, formado em Educação Física, 28 anos de idade, era instrutor em uma 
 academia de ginástica há 1 ano, com a CTPS devidamente assinada. Ao ser c omunicado pelo 
@@ -4478,7 +5059,7 @@
 que é devido pela dispensa sem justa causa.</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -4499,22 +5080,30 @@
 da legislação específica dos servidores civis e militares, e, na sua falta, aos sucessores previstos na l ei civil.</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>art. 1º da Lei 6.858/80</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E73" t="b">
-        <v>0</v>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>QUESTÃO 73. Você advoga para uma rede de farmácias e recebeu uma petição inicial de reclamação 
 trabalhista para elaborar defesa acerca de pedido de tempo despendido com troca de uniforme.  
@@ -4538,7 +5127,7 @@
 computado, porque não há obrigatori edade de troca na empresa.</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -4558,22 +5147,30 @@
 responsabilidade do trabalha dor, não havendo de se falar em cômputo deste tempo.</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Art. 4º, § 2º, inciso VII da CLT, Art. 456-A da CLT</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E74" t="b">
-        <v>0</v>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>QUESTÃO 74. Francisco é caseiro desde 2019 em uma chácara localizada em área urbana, cujo 
 proprietário aluga o imóvel por temporada por meio de um site especializado neste tipo de negociação. 
@@ -4589,7 +5186,7 @@
 d) Empregado comum.</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -4610,22 +5207,30 @@
 prestar serviços de natureza não eventual a empregador, sob a dependência deste e mediante salário.</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Art. 443, § 3º, da CLT, Art. 3º da CLT, Art. 1º da LC 150/2015</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E75" t="b">
-        <v>0</v>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>QUESTÃO 75. Sílvio Luiz foi convidado pelo seu empregador p ara ocupar interinamente o cargo de 
 supervisor administrativo; sendo certo que, em caso de vacância do cargo, este seria preenchido por 
@@ -4645,7 +5250,7 @@
 temporariamente.</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -4662,22 +5267,30 @@
 garantidas a contagem do tempo naquele serviço, bem como volta ao cargo anterio r.”</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>art. 468, § 1º da CLT, Súmula 159, II, do TST, Súmula 159, I, do TST, art. 450 da CLT</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E76" t="b">
-        <v>0</v>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>QUESTÃO 76. Leonardo Pereira e Panificação Pão Fresquinho Ltda decidiram, amigavelmente, 
 encerrar a relação de emprego mantida entre eles. Porém, as verbas rescisórias não eram  
@@ -4697,7 +5310,7 @@
 conjunta do processo de homologação de transação extrajudicial.</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -4715,22 +5328,30 @@
 representadas por advogado comum.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>art. 855-B da CLT, § 1º do art. 855-B da CLT</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E77" t="b">
-        <v>0</v>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>QUESTÃO 77. Depois de fracassar a tentativa pacífica de negociação para realizar uma convenção 
 coletiva de âmbito municipal, o sindicato dos empregados ajuizou dissídio coletivo que, depois de 
@@ -4744,7 +5365,7 @@
 d) Caberá recurso ordinário para o TRT.</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.   
@@ -4759,22 +5380,30 @@
 o TST.</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Art. 895, II, da CLT</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E78" t="b">
-        <v>0</v>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>QUESTÃO 78. Você advoga para um ex -empregado, em sede de reclamação trabalhista em face de uma 
 sociedade empresária, e também em face dos sócios desta.  
@@ -4796,7 +5425,7 @@
 e inferior a 10% sobre o valor corrigido da causa, entre outras penalidades.</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -4813,22 +5442,30 @@
 arcar com os honorários advocatícios e com todas as despesas que efetuou.”</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Art. 793-B, VI, da CLT, Art. 793-C, § 2º, da CLT, Art. 793-B, I, da CLT, Art. 793-C, caput, da CLT</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E79" t="b">
-        <v>0</v>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>QUESTÃO 79. Tomás teve o pedido de sua reclamação trabalhista julgado procedente em parte. Com 
 o trânsit o em julgado, adveio a fase executória e o juiz lhe conferiu prazo para apresentar os cálculos  
@@ -4847,7 +5484,7 @@
 daí o mér ito não será apreciado.</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -4863,22 +5500,30 @@
 conforme art. 879, § 2º, da CLT.</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>art. 884, caput, da CLT, art. 879, § 2º, da CLT, preclusão</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E80" t="b">
-        <v>0</v>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>QUESTÃO 80. Pedro Arnaldo ajuizou reclamação trabalhista em face da ex -empregado ra. No dia da 
 audiência, rejeitada a possibilidade de acordo, o feito foi contestado. A parte ré, porém, requereu o 
@@ -4894,7 +5539,7 @@
 d) Ausente o interesse de agir, o feito deverá ser extinto sem resolução do mérito.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -4916,18 +5561,23 @@
   Instagr am: estrategiacarreirajurídica / yasminushara</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Súmula 9 do TST, Súmula 74, I, do TST</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
   </sheetData>
